--- a/respon-uas/naive-bayes-0079.xlsx
+++ b/respon-uas/naive-bayes-0079.xlsx
@@ -8,15 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kuliah S1 SI STMIK\SEMESTER 5\1.1 Visualisasi Data dan Data Sciences\Teori\respon-uas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0720CEE-99DB-4195-90B2-F3AB2515FA80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2501F2D0-AC53-4E14-ACAD-08E515FABD12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="500" windowWidth="14400" windowHeight="8290" activeTab="2" xr2:uid="{0D93A023-6F6D-4FB4-9AAB-D42304ED46D9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{0D93A023-6F6D-4FB4-9AAB-D42304ED46D9}"/>
   </bookViews>
   <sheets>
     <sheet name="ketentuan" sheetId="5" r:id="rId1"/>
     <sheet name="naive-bayes" sheetId="2" r:id="rId2"/>
     <sheet name="hitung n-bayes" sheetId="6" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'hitung n-bayes'!$A$2:$C$12</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="46">
   <si>
     <t>Rendah</t>
   </si>
@@ -113,10 +116,67 @@
     <t>- UAS open book dengan cara print manual materi tidak diperkenankan menggunakan softcopy</t>
   </si>
   <si>
-    <t>Hasil Prediksi</t>
-  </si>
-  <si>
     <t>Data Real</t>
+  </si>
+  <si>
+    <t>Hitung Tingkat Akurasi melalui Confusion Matrix untuk algoritma Naive Bayes, K-NN</t>
+  </si>
+  <si>
+    <t>21.230.0079</t>
+  </si>
+  <si>
+    <t>Muhammad Ferdynan Ali Syahbana</t>
+  </si>
+  <si>
+    <t>P(cerah), P(hujan), P(mendung)</t>
+  </si>
+  <si>
+    <t>P(Suhu|hujan), P(Suhu|cerah), P(Suhu|mendung)</t>
+  </si>
+  <si>
+    <t>P(Kecepatan Angin|hujan), P(KA|cerah), P(KA|mendung)</t>
+  </si>
+  <si>
+    <t>Hujan =</t>
+  </si>
+  <si>
+    <t>4/10</t>
+  </si>
+  <si>
+    <t>Angin</t>
+  </si>
+  <si>
+    <t>Cuaca</t>
+  </si>
+  <si>
+    <t>dst</t>
+  </si>
+  <si>
+    <t>Rendah, Hujan = jumlah rendah hujan / jumlah hujan</t>
+  </si>
+  <si>
+    <t>Dingin, Hujan = jumlah dingin hujan / hujan    dst…</t>
+  </si>
+  <si>
+    <t>dst…</t>
+  </si>
+  <si>
+    <t>Perhitungan Tinggi  panas:</t>
+  </si>
+  <si>
+    <t>+1</t>
+  </si>
+  <si>
+    <t>Jadi dengan kecepatan angin Tinggi dan cuaca Panas diperkirakan akan Hujan</t>
+  </si>
+  <si>
+    <t>Cara menghitung:</t>
+  </si>
+  <si>
+    <t>Hujan= tinggi hujan * tinggi panas</t>
+  </si>
+  <si>
+    <t>Jika hasil ada yang 0 maka di tambah 1 semua</t>
   </si>
 </sst>
 </file>
@@ -139,15 +199,14 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -168,24 +227,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -193,20 +240,137 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -225,24 +389,60 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>488950</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>63501</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>419269</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>120651</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B56BC967-D490-4188-9CD1-676F9E1431B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect t="2062" b="3613"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="488950" y="2825751"/>
+          <a:ext cx="3289469" cy="1162050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{9A4D1D4B-1BC9-4FFD-A891-9C6FB0AB5E13}" name="Table5" displayName="Table5" ref="A1:C11" totalsRowShown="0">
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{6E5004D8-3B2A-4B8B-875A-6972FD3A97B1}" name="Kecepatan Angin"/>
     <tableColumn id="2" xr3:uid="{F04B6625-186F-4142-9669-8F08342B0C31}" name="Suhu"/>
     <tableColumn id="3" xr3:uid="{AB956247-0392-43E0-BF1D-1A02D4A7712F}" name="Jenis Cuaca"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6AA1A259-3350-4B24-84FD-CF76A04EB58A}" name="Table52" displayName="Table52" ref="A1:C11" totalsRowShown="0">
-  <autoFilter ref="A1:C11" xr:uid="{6AA1A259-3350-4B24-84FD-CF76A04EB58A}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{7BB00939-475E-490D-B78D-1A37D40AD1C6}" name="Kecepatan Angin"/>
-    <tableColumn id="2" xr3:uid="{D742B9A4-8A20-4CAA-BBD3-7B946B4BF3A3}" name="Suhu"/>
-    <tableColumn id="3" xr3:uid="{196072EA-A1EB-43C8-981D-D8768B1B76E1}" name="Jenis Cuaca"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -548,7 +748,7 @@
   <dimension ref="A1:A15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -629,7 +829,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="A13" sqref="A13:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -780,170 +980,670 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C25B7B3-6AAB-4D9A-8A95-BC5F4AC79FA6}">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.81640625" customWidth="1"/>
-    <col min="3" max="3" width="12.26953125" customWidth="1"/>
-    <col min="8" max="8" width="12.81640625" customWidth="1"/>
-    <col min="9" max="9" width="5.7265625" customWidth="1"/>
+    <col min="1" max="1" width="9.453125" customWidth="1"/>
+    <col min="2" max="2" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.36328125" customWidth="1"/>
+    <col min="8" max="8" width="10" customWidth="1"/>
+    <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.7265625" customWidth="1"/>
+    <col min="12" max="12" width="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="L1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="E2" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A3" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C3" s="23" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A4" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C4" s="23" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
+      <c r="H4" s="3"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+    </row>
+    <row r="5" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B5" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C5" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="E5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A6" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C6" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="7"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="E6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A7" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C7" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="7"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="E7" s="9">
+        <v>4</v>
+      </c>
+      <c r="F7" s="9">
+        <v>4</v>
+      </c>
+      <c r="G7" s="9">
         <v>2</v>
       </c>
-      <c r="B7" t="s">
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A8" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C8" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="I7" s="7"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A9" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C9" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="7"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="E9" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A10" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C10" s="23" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="E10" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A11" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C11" s="23" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="E11" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A12" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C12" s="23" t="s">
         <v>6</v>
       </c>
+      <c r="E12" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A14" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B14" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C14" s="7" t="s">
         <v>13</v>
       </c>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A22" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I22" s="11"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A23" s="12"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="9">
+        <f>E7/(SUM($E$7:$G$7))</f>
+        <v>0.4</v>
+      </c>
+      <c r="G23" s="9">
+        <f>F7/(SUM($E$7:$G$7))</f>
+        <v>0.4</v>
+      </c>
+      <c r="H23" s="9">
+        <f>G7/(SUM($E$7:$G$7))</f>
+        <v>0.2</v>
+      </c>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A24" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A25" s="20"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A26" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A27" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="9">
+        <f>COUNTIFS($A$3:$A$12,$E10,$C$3:$C$12,$E$6)/COUNTIF($C$3:$C$12,$E$6)</f>
+        <v>0.5</v>
+      </c>
+      <c r="G27" s="9">
+        <f>COUNTIFS($A$3:$A$12,$E10,$C$3:$C$12,$F$6)/COUNTIF($C$3:$C$12,$F$6)</f>
+        <v>0.5</v>
+      </c>
+      <c r="H27" s="9">
+        <f>COUNTIFS($A$3:$A$12,$E10,$C$3:$C$12,$G$6)/COUNTIF($C$3:$C$12,$G$6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A28" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="9">
+        <f t="shared" ref="F28:F29" si="0">COUNTIFS($A$3:$A$12,$E11,$C$3:$C$12,$E$6)/COUNTIF($C$3:$C$12,$E$6)</f>
+        <v>0</v>
+      </c>
+      <c r="G28" s="9">
+        <f t="shared" ref="G28:G29" si="1">COUNTIFS($A$3:$A$12,$E11,$C$3:$C$12,$F$6)/COUNTIF($C$3:$C$12,$F$6)</f>
+        <v>0.25</v>
+      </c>
+      <c r="H28" s="9">
+        <f t="shared" ref="H28:H29" si="2">COUNTIFS($A$3:$A$12,$E11,$C$3:$C$12,$G$6)/COUNTIF($C$3:$C$12,$G$6)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A29" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="9">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="G29" s="9">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+      <c r="H29" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A32" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A33" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="9">
+        <f>COUNTIFS($B$3:$B$12,$F10,$C$3:$C$12,$E$6)/COUNTIF($C$3:$C$12,$E$6)</f>
+        <v>0.25</v>
+      </c>
+      <c r="G33" s="9">
+        <f>COUNTIFS($B$3:$B$12,$F10,$C$3:$C$12,$F$6)/COUNTIF($C$3:$C$12,$F$6)</f>
+        <v>0</v>
+      </c>
+      <c r="H33" s="9">
+        <f>COUNTIFS($B$3:$B$12,$F10,$C$3:$C$12,$G$6)/COUNTIF($C$3:$C$12,$G$6)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A34" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="9">
+        <f t="shared" ref="F34:F35" si="3">COUNTIFS($B$3:$B$12,$F11,$C$3:$C$12,$E$6)/COUNTIF($C$3:$C$12,$E$6)</f>
+        <v>0.25</v>
+      </c>
+      <c r="G34" s="9">
+        <f t="shared" ref="G34:G35" si="4">COUNTIFS($B$3:$B$12,$F11,$C$3:$C$12,$F$6)/COUNTIF($C$3:$C$12,$F$6)</f>
+        <v>0.75</v>
+      </c>
+      <c r="H34" s="9">
+        <f t="shared" ref="H34:H35" si="5">COUNTIFS($B$3:$B$12,$F11,$C$3:$C$12,$G$6)/COUNTIF($C$3:$C$12,$G$6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A35" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="9">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="G35" s="9">
+        <f t="shared" si="4"/>
+        <v>0.25</v>
+      </c>
+      <c r="H35" s="9">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <f>F29*F35</f>
+        <v>0.25</v>
+      </c>
+      <c r="B40">
+        <f>G29*G35</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="C40">
+        <f>H29*H35</f>
+        <v>0</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A41" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="E41" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <f>1+A40</f>
+        <v>1.25</v>
+      </c>
+      <c r="B42">
+        <f t="shared" ref="B42:C42" si="6">1+B40</f>
+        <v>1.0625</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="E42" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>42</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="I4:I8"/>
+  <autoFilter ref="A2:C12" xr:uid="{9C25B7B3-6AAB-4D9A-8A95-BC5F4AC79FA6}"/>
+  <mergeCells count="10">
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="A35:E35"/>
+    <mergeCell ref="A34:E34"/>
+    <mergeCell ref="A33:E33"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A29:E29"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="A26:E26"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>